--- a/bmc_testbench/easy_instances/comparison_d2_10p.xlsx
+++ b/bmc_testbench/easy_instances/comparison_d2_10p.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="comparison_d2_10p.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,17 +30,33 @@
     <t xml:space="preserve"> Python + C (Lower interface) </t>
   </si>
   <si>
-    <t xml:space="preserve"> Python (sec 4.1) </t>
+    <t xml:space="preserve"> Python </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +79,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -102,20 +134,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Mean exectution</a:t>
+              <a:t>Compared</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> time to solve an easy instance</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t>for a formula of depth 2 and 10 philosophers</a:t>
+              <a:t> execution time for easy instances</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -304,7 +327,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Python + C (Lower interface) </c:v>
+                  <c:v> Python </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -393,171 +416,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.4676</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4958</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6296</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6808</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.823</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9124</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9952</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0814</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1934</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2656</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.427</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5598</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.672</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.742</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9462</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9842</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.2632</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.411</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.5264</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>comparison_d2_10p.csv!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> Python (sec 4.1) </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>comparison_d2_10p.csv!$A$2:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>30.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>comparison_d2_10p.csv!$D$2:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0">
                   <c:v>0.5354</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -633,11 +491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117504072"/>
-        <c:axId val="-2117507240"/>
+        <c:axId val="-2114267208"/>
+        <c:axId val="-2114303064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117504072"/>
+        <c:axId val="-2114267208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -650,12 +508,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Problem bound (max trace length)</a:t>
+                  <a:rPr lang="fr-FR" sz="1400"/>
+                  <a:t>Problem bound (max trace</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" baseline="0"/>
+                  <a:t> length)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -666,12 +529,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117507240"/>
+        <c:crossAx val="-2114303064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117507240"/>
+        <c:axId val="-2114303064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -685,10 +548,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-FR"/>
+                  <a:rPr lang="fr-FR" sz="1400"/>
                   <a:t>Mean execution time (seconds)</a:t>
                 </a:r>
               </a:p>
@@ -701,7 +564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117504072"/>
+        <c:crossAx val="-2114267208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -710,6 +573,16 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -728,19 +601,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1080,15 +953,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,13 +969,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1110,13 +983,13 @@
         <v>0.21240000000000001</v>
       </c>
       <c r="C2">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="F2">
         <v>0.46760000000000002</v>
       </c>
-      <c r="D2">
-        <v>0.53539999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>11</v>
       </c>
@@ -1124,13 +997,13 @@
         <v>0.26079999999999998</v>
       </c>
       <c r="C3">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="F3">
         <v>0.49580000000000002</v>
       </c>
-      <c r="D3">
-        <v>0.61199999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>12</v>
       </c>
@@ -1138,13 +1011,13 @@
         <v>0.31680000000000003</v>
       </c>
       <c r="C4">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="F4">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D4">
-        <v>0.69199999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>13</v>
       </c>
@@ -1152,13 +1025,13 @@
         <v>0.37340000000000001</v>
       </c>
       <c r="C5">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="F5">
         <v>0.62960000000000005</v>
       </c>
-      <c r="D5">
-        <v>0.77639999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>14</v>
       </c>
@@ -1166,13 +1039,13 @@
         <v>0.45779999999999998</v>
       </c>
       <c r="C6">
+        <v>0.87419999999999998</v>
+      </c>
+      <c r="F6">
         <v>0.68079999999999996</v>
       </c>
-      <c r="D6">
-        <v>0.87419999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1180,13 +1053,13 @@
         <v>0.53600000000000003</v>
       </c>
       <c r="C7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F7">
         <v>0.73580000000000001</v>
       </c>
-      <c r="D7">
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1194,13 +1067,13 @@
         <v>0.61419999999999997</v>
       </c>
       <c r="C8">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="F8">
         <v>0.82299999999999995</v>
       </c>
-      <c r="D8">
-        <v>1.0880000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>17</v>
       </c>
@@ -1208,13 +1081,13 @@
         <v>0.66420000000000001</v>
       </c>
       <c r="C9">
+        <v>1.2410000000000001</v>
+      </c>
+      <c r="F9">
         <v>0.91239999999999999</v>
       </c>
-      <c r="D9">
-        <v>1.2410000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>18</v>
       </c>
@@ -1222,13 +1095,13 @@
         <v>0.75839999999999996</v>
       </c>
       <c r="C10">
+        <v>1.3424</v>
+      </c>
+      <c r="F10">
         <v>0.99519999999999997</v>
       </c>
-      <c r="D10">
-        <v>1.3424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>19</v>
       </c>
@@ -1236,13 +1109,13 @@
         <v>0.84079999999999999</v>
       </c>
       <c r="C11">
+        <v>1.5474000000000001</v>
+      </c>
+      <c r="F11">
         <v>1.0813999999999999</v>
       </c>
-      <c r="D11">
-        <v>1.5474000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1250,13 +1123,13 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="C12">
+        <v>1.7018</v>
+      </c>
+      <c r="F12">
         <v>1.1934</v>
       </c>
-      <c r="D12">
-        <v>1.7018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>21</v>
       </c>
@@ -1264,13 +1137,13 @@
         <v>1.0528</v>
       </c>
       <c r="C13">
+        <v>1.9792000000000001</v>
+      </c>
+      <c r="F13">
         <v>1.2656000000000001</v>
       </c>
-      <c r="D13">
-        <v>1.9792000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>22</v>
       </c>
@@ -1278,13 +1151,13 @@
         <v>1.1274</v>
       </c>
       <c r="C14">
+        <v>2.0981999999999998</v>
+      </c>
+      <c r="F14">
         <v>1.427</v>
       </c>
-      <c r="D14">
-        <v>2.0981999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>23</v>
       </c>
@@ -1292,13 +1165,13 @@
         <v>1.2558</v>
       </c>
       <c r="C15">
+        <v>2.3142</v>
+      </c>
+      <c r="F15">
         <v>1.5598000000000001</v>
       </c>
-      <c r="D15">
-        <v>2.3142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1306,13 +1179,13 @@
         <v>1.3782000000000001</v>
       </c>
       <c r="C16">
+        <v>2.5735999999999999</v>
+      </c>
+      <c r="F16">
         <v>1.6719999999999999</v>
       </c>
-      <c r="D16">
-        <v>2.5735999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>25</v>
       </c>
@@ -1320,13 +1193,13 @@
         <v>1.5089999999999999</v>
       </c>
       <c r="C17">
+        <v>2.8424</v>
+      </c>
+      <c r="F17">
         <v>1.742</v>
       </c>
-      <c r="D17">
-        <v>2.8424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>26</v>
       </c>
@@ -1334,13 +1207,13 @@
         <v>1.7352000000000001</v>
       </c>
       <c r="C18">
+        <v>3.1372</v>
+      </c>
+      <c r="F18">
         <v>1.9461999999999999</v>
       </c>
-      <c r="D18">
-        <v>3.1372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>27</v>
       </c>
@@ -1348,13 +1221,13 @@
         <v>1.8295999999999999</v>
       </c>
       <c r="C19">
+        <v>3.4706000000000001</v>
+      </c>
+      <c r="F19">
         <v>1.9842</v>
       </c>
-      <c r="D19">
-        <v>3.4706000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>28</v>
       </c>
@@ -1362,13 +1235,13 @@
         <v>2.0446</v>
       </c>
       <c r="C20">
+        <v>3.8382000000000001</v>
+      </c>
+      <c r="F20">
         <v>2.2631999999999999</v>
       </c>
-      <c r="D20">
-        <v>3.8382000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>29</v>
       </c>
@@ -1376,13 +1249,13 @@
         <v>2.1859999999999999</v>
       </c>
       <c r="C21">
+        <v>4.3322000000000003</v>
+      </c>
+      <c r="F21">
         <v>2.411</v>
       </c>
-      <c r="D21">
-        <v>4.3322000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1390,14 +1263,15 @@
         <v>2.25</v>
       </c>
       <c r="C22">
+        <v>4.6878000000000002</v>
+      </c>
+      <c r="F22">
         <v>2.5264000000000002</v>
-      </c>
-      <c r="D22">
-        <v>4.6878000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
